--- a/project-documents/Test_Cases.xlsx
+++ b/project-documents/Test_Cases.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X056705\Downloads\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="17235" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="17235" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2.3.32" sheetId="1" r:id="rId1"/>
+    <sheet name="v2.3.38" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">v2.3.32!$A$1:$G$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">v2.3.38!$A$1:$G$94</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="362">
   <si>
     <t>2 numbers are chosen, both are between 1 and 6, and are added together to provide the die total</t>
   </si>
@@ -239,9 +241,6 @@
     <t>User pays a fine and is set outside of The Arena</t>
   </si>
   <si>
-    <t xml:space="preserve"> Passing Rome! awards the player $200</t>
-  </si>
-  <si>
     <t>Click Roll Dice, then End Turn until you pass Rome!</t>
   </si>
   <si>
@@ -921,12 +920,225 @@
   </si>
   <si>
     <t>once end turn is clicked it updates the right hand side</t>
+  </si>
+  <si>
+    <t>2.3.32</t>
+  </si>
+  <si>
+    <t>2.3.38</t>
+  </si>
+  <si>
+    <t>Purchase button is unavailable, after landing on The Arena</t>
+  </si>
+  <si>
+    <t>Purchase button is disabled</t>
+  </si>
+  <si>
+    <t>Unowned property enables the Purchase Button</t>
+  </si>
+  <si>
+    <t>The Purchase button is enabled</t>
+  </si>
+  <si>
+    <t>Purchase shows that the property is now owned by current player</t>
+  </si>
+  <si>
+    <t>Click Purchase button while on an unowned property</t>
+  </si>
+  <si>
+    <t>Purchase isn't available if property is already owned by current player</t>
+  </si>
+  <si>
+    <t>The Purchase button is disabled</t>
+  </si>
+  <si>
+    <t>Purchase isn't available if property is already owned by another player</t>
+  </si>
+  <si>
+    <t>Landing on an unowned VIA enables Purchase button</t>
+  </si>
+  <si>
+    <t>Purchase button is enabled</t>
+  </si>
+  <si>
+    <t>Landing on an owned VIA disables Purchase button</t>
+  </si>
+  <si>
+    <t>An Owned Utility disables Purchase button</t>
+  </si>
+  <si>
+    <t>Landing on Free Market, Purchase button is disabled</t>
+  </si>
+  <si>
+    <t>Click on Purchase while on an unowned property</t>
+  </si>
+  <si>
+    <t>Start a New Game (Terminate Program, Open Program, Click New Game), Click Roll Dice and End Turn without Clicking Purchase a few times.</t>
+  </si>
+  <si>
+    <t>Mortgaged properties still disable the Purchase button for that property</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on property owned by current player, Click OK</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on property owned by another player, Click OK</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on more than one property owned by current player, Click OK</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on property owned by current player, Click OK, Click on player from new window showing list of players</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on property owned by current player, Click Cancel</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on property owned by current player, Click OK, Click on player from new window showing list of players, click OK</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on property owned by current player, Click OK, Click on player from new window showing list of players, click OK, Choose property owned by the 2nd player, click Cancel</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on property owned by current player, Click OK, Click on player from new window showing list of players, click OK, Choose property not owned by the 2nd player, click OK</t>
+  </si>
+  <si>
+    <t>Click on Roll Dice, land on unowned property, Click Purchase, Click Trade, Click on property owned by current player, Click OK, Click on player from new window showing list of players, click OK, Choose property owned by the 2nd player, click Ok, Click End Turn</t>
+  </si>
+  <si>
+    <t>Passing Rome! awards the player $200</t>
+  </si>
+  <si>
+    <t>doesn't respond to the cancel, but nothing happens</t>
+  </si>
+  <si>
+    <t>cannot pick the player, only their property</t>
+  </si>
+  <si>
+    <t>The second box gives the player a choice</t>
+  </si>
+  <si>
+    <t>You can choose both properties, but it prints out this property is not owned. If you click confirm trade it gives it to the player, this is a bug</t>
+  </si>
+  <si>
+    <t>once confirm trade is clicked the right hand side updates</t>
+  </si>
+  <si>
+    <t>It must follow through both cancels to end it</t>
+  </si>
+  <si>
+    <t>It prints do not own this property, there is a bug that if you hit confirm trade it will give the player the property regardless</t>
+  </si>
+  <si>
+    <t>Trade button activates after the player buys their first property</t>
+  </si>
+  <si>
+    <t>choose whom to buy the property to on your turn</t>
+  </si>
+  <si>
+    <t>if you do not confirm buy, it keeps the button but it is greyed out</t>
+  </si>
+  <si>
+    <t>replaced with buy from another player</t>
+  </si>
+  <si>
+    <t>updates immediately</t>
+  </si>
+  <si>
+    <t>can have a negative balance</t>
+  </si>
+  <si>
+    <t>it gets stuck on asking if a player would like to mortgage to continue</t>
+  </si>
+  <si>
+    <t>immediately flips</t>
+  </si>
+  <si>
+    <t>removes 1/2 purchase price from the player balance</t>
+  </si>
+  <si>
+    <t>it is a stats print out on right and button</t>
+  </si>
+  <si>
+    <t>updates to the next player</t>
+  </si>
+  <si>
+    <t>moves to see a battle</t>
+  </si>
+  <si>
+    <t>will increment the player's funds</t>
+  </si>
+  <si>
+    <t>will relocate</t>
+  </si>
+  <si>
+    <t>increments upward on stats bar</t>
+  </si>
+  <si>
+    <t>does populate different cards</t>
+  </si>
+  <si>
+    <t>does not print in stats bar does affect player balance</t>
+  </si>
+  <si>
+    <t>go to see a battle, end turn, roll and continue on. Does charge 50 denarius fine or escape on doubles</t>
+  </si>
+  <si>
+    <t>rent is stuck on triple rent or 100 denarius</t>
+  </si>
+  <si>
+    <t>if all colors are owned by one player then rent is doubled</t>
+  </si>
+  <si>
+    <t>default rent on the cards is paid until all colors are owned</t>
+  </si>
+  <si>
+    <t>updates on rolling, end turn, purchase, mortgage and unmortgage</t>
+  </si>
+  <si>
+    <t>can still mortgage, buy from another player and trade</t>
+  </si>
+  <si>
+    <t>defaults from 11 to 10 and increments up one to simulate how the board would work if it ignored the arena (11)</t>
+  </si>
+  <si>
+    <t>will go to jail and wait three turns, get out, end turn, roll and continue</t>
+  </si>
+  <si>
+    <t>It will go straight to Rome</t>
+  </si>
+  <si>
+    <t>Will increment upwards based on nearest location or direct location to move to</t>
+  </si>
+  <si>
+    <t>can roll doubles endlessly, turn ends, then roll one more time and then go to jail</t>
+  </si>
+  <si>
+    <t>move forward once rolling dice</t>
+  </si>
+  <si>
+    <t>end turn is greyed out and a stats bar print out says to continue to roll</t>
+  </si>
+  <si>
+    <t>It doesn't send the player to jail until the turn comes back around</t>
+  </si>
+  <si>
+    <t>doubles does increment up for each in a row</t>
+  </si>
+  <si>
+    <t>locks out have to press x at the top</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -985,6 +1197,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,6 +1293,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1113,6 +1345,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1291,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1550,7 @@
     <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66" customWidth="1"/>
   </cols>
@@ -1340,16 +1589,16 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2" s="5">
         <v>42709</v>
       </c>
-      <c r="F2">
-        <v>2.3199999999999998</v>
+      <c r="F2" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,16 +1612,16 @@
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" s="5">
         <v>42709</v>
       </c>
-      <c r="F3">
-        <v>2.3199999999999998</v>
+      <c r="F3" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1386,16 +1635,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="5">
         <v>42707</v>
       </c>
-      <c r="F4">
-        <v>2.31</v>
+      <c r="F4" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1409,16 +1658,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="5">
         <v>42707</v>
       </c>
-      <c r="F5">
-        <v>2.31</v>
+      <c r="F5" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1432,16 +1681,16 @@
         <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="5">
         <v>42708</v>
       </c>
-      <c r="F6">
-        <v>2.3199999999999998</v>
+      <c r="F6" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,16 +1704,16 @@
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="5">
         <v>42708</v>
       </c>
-      <c r="F7">
-        <v>2.3199999999999998</v>
+      <c r="F7" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1472,22 +1721,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" s="5">
         <v>42708</v>
       </c>
-      <c r="F8">
-        <v>2.3199999999999998</v>
+      <c r="F8" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1501,16 +1750,16 @@
         <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="5">
         <v>42708</v>
       </c>
-      <c r="F9">
-        <v>2.3199999999999998</v>
+      <c r="F9" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1524,16 +1773,16 @@
         <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="5">
         <v>42708</v>
       </c>
-      <c r="F10">
-        <v>2.3199999999999998</v>
+      <c r="F10" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1547,183 +1796,183 @@
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" s="5">
         <v>42708</v>
       </c>
-      <c r="F11">
-        <v>2.3199999999999998</v>
+      <c r="F11" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12" s="5">
         <v>42708</v>
       </c>
-      <c r="F12">
-        <v>2.3199999999999998</v>
+      <c r="F12" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" s="5">
         <v>42708</v>
       </c>
-      <c r="F13">
-        <v>2.3199999999999998</v>
+      <c r="F13" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="5">
         <v>42708</v>
       </c>
-      <c r="F14">
-        <v>2.3199999999999998</v>
+      <c r="F14" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E15" s="5">
         <v>42708</v>
       </c>
-      <c r="F15">
-        <v>2.3199999999999998</v>
+      <c r="F15" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E16" s="5">
         <v>42708</v>
       </c>
-      <c r="F16">
-        <v>2.3199999999999998</v>
+      <c r="F16" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E17" s="5">
         <v>42708</v>
       </c>
-      <c r="F17">
-        <v>2.3199999999999998</v>
+      <c r="F17" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="5">
         <v>42708</v>
       </c>
-      <c r="F18">
-        <v>2.3199999999999998</v>
+      <c r="F18" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="5">
         <v>42708</v>
       </c>
-      <c r="F19">
-        <v>2.3199999999999998</v>
+      <c r="F19" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1732,126 +1981,126 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E20" s="5">
         <v>42708</v>
       </c>
-      <c r="F20">
-        <v>2.3199999999999998</v>
+      <c r="F20" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" s="5">
         <v>42708</v>
       </c>
-      <c r="F21">
-        <v>2.3199999999999998</v>
+      <c r="F21" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="5">
         <v>42708</v>
       </c>
-      <c r="F22">
-        <v>2.3199999999999998</v>
+      <c r="F22" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E23" s="5">
         <v>42708</v>
       </c>
-      <c r="F23">
-        <v>2.3199999999999998</v>
+      <c r="F23" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E24" s="5">
         <v>42708</v>
       </c>
-      <c r="F24">
-        <v>2.3199999999999998</v>
+      <c r="F24" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E25" s="5">
         <v>42708</v>
       </c>
-      <c r="F25">
-        <v>2.3199999999999998</v>
+      <c r="F25" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -1860,19 +2109,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" s="5">
         <v>42708</v>
       </c>
-      <c r="F26">
-        <v>2.3199999999999998</v>
+      <c r="F26" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1881,22 +2130,22 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27" s="5">
         <v>42708</v>
       </c>
-      <c r="F27">
-        <v>2.3199999999999998</v>
+      <c r="F27" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1904,22 +2153,22 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28" s="5">
         <v>42708</v>
       </c>
-      <c r="F28">
-        <v>2.3199999999999998</v>
+      <c r="F28" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1927,22 +2176,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E29" s="5">
         <v>42708</v>
       </c>
-      <c r="F29">
-        <v>2.3199999999999998</v>
+      <c r="F29" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1950,22 +2199,22 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="5">
         <v>42708</v>
       </c>
-      <c r="F30">
-        <v>2.3199999999999998</v>
+      <c r="F30" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1973,584 +2222,584 @@
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E31" s="5">
         <v>42708</v>
       </c>
-      <c r="F31">
-        <v>2.3199999999999998</v>
+      <c r="F31" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" s="5">
         <v>42708</v>
       </c>
-      <c r="F32">
-        <v>2.3199999999999998</v>
+      <c r="F32" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E33" s="5">
         <v>42708</v>
       </c>
-      <c r="F33">
-        <v>2.3199999999999998</v>
+      <c r="F33" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E34" s="5">
         <v>42708</v>
       </c>
-      <c r="F34">
-        <v>2.3199999999999998</v>
+      <c r="F34" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E35" s="5">
         <v>42708</v>
       </c>
-      <c r="F35">
-        <v>2.3199999999999998</v>
+      <c r="F35" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E36" s="5">
         <v>42708</v>
       </c>
-      <c r="F36">
-        <v>2.3199999999999998</v>
+      <c r="F36" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E37" s="5">
         <v>42708</v>
       </c>
-      <c r="F37">
-        <v>2.3199999999999998</v>
+      <c r="F37" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E38" s="5">
         <v>42708</v>
       </c>
-      <c r="F38">
-        <v>2.3199999999999998</v>
+      <c r="F38" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E39" s="5">
         <v>42708</v>
       </c>
-      <c r="F39">
-        <v>2.3199999999999998</v>
+      <c r="F39" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E40" s="5">
         <v>42708</v>
       </c>
-      <c r="F40">
-        <v>2.3199999999999998</v>
+      <c r="F40" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E41" s="5">
         <v>42708</v>
       </c>
-      <c r="F41">
-        <v>2.3199999999999998</v>
+      <c r="F41" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="5">
         <v>42708</v>
       </c>
-      <c r="F42">
-        <v>2.3199999999999998</v>
+      <c r="F42" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E43" s="5">
         <v>42708</v>
       </c>
-      <c r="F43">
-        <v>2.3199999999999998</v>
+      <c r="F43" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E44" s="5">
         <v>42708</v>
       </c>
-      <c r="F44">
-        <v>2.3199999999999998</v>
+      <c r="F44" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E45" s="5">
         <v>42708</v>
       </c>
-      <c r="F45">
-        <v>2.3199999999999998</v>
+      <c r="F45" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E46" s="5">
         <v>42708</v>
       </c>
-      <c r="F46">
-        <v>2.3199999999999998</v>
+      <c r="F46" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E47" s="5">
         <v>42708</v>
       </c>
-      <c r="F47">
-        <v>2.3199999999999998</v>
+      <c r="F47" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E48" s="5">
         <v>42708</v>
       </c>
-      <c r="F48">
-        <v>2.3199999999999998</v>
+      <c r="F48" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E49" s="5">
         <v>42708</v>
       </c>
-      <c r="F49">
-        <v>2.3199999999999998</v>
+      <c r="F49" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E50" s="5">
         <v>42708</v>
       </c>
-      <c r="F50">
-        <v>2.3199999999999998</v>
+      <c r="F50" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E51" s="5">
         <v>42708</v>
       </c>
-      <c r="F51">
-        <v>2.3199999999999998</v>
+      <c r="F51" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E52" s="5">
         <v>42708</v>
       </c>
-      <c r="F52">
-        <v>2.3199999999999998</v>
+      <c r="F52" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E53" s="5">
         <v>42708</v>
       </c>
-      <c r="F53">
-        <v>2.3199999999999998</v>
+      <c r="F53" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E54" s="5">
         <v>42708</v>
       </c>
-      <c r="F54">
-        <v>2.3199999999999998</v>
+      <c r="F54" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E55" s="5">
         <v>42708</v>
       </c>
-      <c r="F55">
-        <v>2.3199999999999998</v>
+      <c r="F55" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E56" s="5">
         <v>42708</v>
       </c>
-      <c r="F56">
-        <v>2.3199999999999998</v>
+      <c r="F56" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E57" s="5">
         <v>42708</v>
       </c>
-      <c r="F57">
-        <v>2.3199999999999998</v>
+      <c r="F57" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G57" s="2"/>
     </row>
@@ -2559,19 +2808,19 @@
         <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E58" s="5">
         <v>42708</v>
       </c>
-      <c r="F58">
-        <v>2.3199999999999998</v>
+      <c r="F58" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G58" s="2"/>
     </row>
@@ -2580,19 +2829,19 @@
         <v>14</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" s="5">
         <v>42708</v>
       </c>
-      <c r="F59">
-        <v>2.3199999999999998</v>
+      <c r="F59" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G59" s="2"/>
     </row>
@@ -2601,19 +2850,19 @@
         <v>15</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E60" s="5">
         <v>42708</v>
       </c>
-      <c r="F60">
-        <v>2.3199999999999998</v>
+      <c r="F60" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -2622,151 +2871,151 @@
         <v>16</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E61" s="5">
         <v>42708</v>
       </c>
-      <c r="F61">
-        <v>2.3199999999999998</v>
+      <c r="F61" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E62" s="5">
         <v>42708</v>
       </c>
-      <c r="F62">
-        <v>2.3199999999999998</v>
+      <c r="F62" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E63" s="5">
         <v>42708</v>
       </c>
-      <c r="F63">
-        <v>2.3199999999999998</v>
+      <c r="F63" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E64" s="5">
         <v>42708</v>
       </c>
-      <c r="F64">
-        <v>2.3199999999999998</v>
+      <c r="F64" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E65" s="5">
         <v>42708</v>
       </c>
-      <c r="F65">
-        <v>2.3199999999999998</v>
+      <c r="F65" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E66" s="5">
         <v>42708</v>
       </c>
-      <c r="F66">
-        <v>2.3199999999999998</v>
+      <c r="F66" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E67" s="5">
         <v>42708</v>
       </c>
-      <c r="F67">
-        <v>2.3199999999999998</v>
+      <c r="F67" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -2775,19 +3024,19 @@
         <v>18</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E68" s="5">
         <v>42708</v>
       </c>
-      <c r="F68">
-        <v>2.3199999999999998</v>
+      <c r="F68" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G68" s="2"/>
     </row>
@@ -2796,126 +3045,126 @@
         <v>19</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E69" s="5">
         <v>42708</v>
       </c>
-      <c r="F69">
-        <v>2.3199999999999998</v>
+      <c r="F69" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E70" s="5">
         <v>42708</v>
       </c>
-      <c r="F70">
-        <v>2.3199999999999998</v>
+      <c r="F70" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E71" s="5">
         <v>42708</v>
       </c>
-      <c r="F71">
-        <v>2.3199999999999998</v>
+      <c r="F71" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E72" s="5">
         <v>42708</v>
       </c>
-      <c r="F72">
-        <v>2.3199999999999998</v>
+      <c r="F72" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E73" s="5">
         <v>42708</v>
       </c>
-      <c r="F73">
-        <v>2.3199999999999998</v>
+      <c r="F73" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E74" s="5">
         <v>42708</v>
       </c>
-      <c r="F74">
-        <v>2.3199999999999998</v>
+      <c r="F74" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G74" s="2"/>
     </row>
@@ -2924,66 +3173,66 @@
         <v>23</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E75" s="5">
         <v>42708</v>
       </c>
-      <c r="F75">
-        <v>2.3199999999999998</v>
+      <c r="F75" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E76" s="5">
         <v>42708</v>
       </c>
-      <c r="F76">
-        <v>2.3199999999999998</v>
+      <c r="F76" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E77" s="5">
         <v>42708</v>
       </c>
-      <c r="F77">
-        <v>2.3199999999999998</v>
+      <c r="F77" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2991,197 +3240,197 @@
         <v>25</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E78" s="5">
         <v>42708</v>
       </c>
-      <c r="F78">
-        <v>2.3199999999999998</v>
+      <c r="F78" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E79" s="5">
         <v>42708</v>
       </c>
-      <c r="F79">
-        <v>2.3199999999999998</v>
+      <c r="F79" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E80" s="5">
         <v>42708</v>
       </c>
-      <c r="F80">
-        <v>2.3199999999999998</v>
+      <c r="F80" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E81" s="5">
         <v>42708</v>
       </c>
-      <c r="F81">
-        <v>2.3199999999999998</v>
+      <c r="F81" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E82" s="5">
         <v>42708</v>
       </c>
-      <c r="F82">
-        <v>2.3199999999999998</v>
+      <c r="F82" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E83" s="5">
         <v>42708</v>
       </c>
-      <c r="F83">
-        <v>2.3199999999999998</v>
+      <c r="F83" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E84" s="5">
         <v>42708</v>
       </c>
-      <c r="F84">
-        <v>2.3199999999999998</v>
+      <c r="F84" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E85" s="5">
         <v>42708</v>
       </c>
-      <c r="F85">
-        <v>2.3199999999999998</v>
+      <c r="F85" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E86" s="5">
         <v>42708</v>
       </c>
-      <c r="F86">
-        <v>2.3199999999999998</v>
+      <c r="F86" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G86" s="2"/>
     </row>
@@ -3190,105 +3439,105 @@
         <v>28</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E87" s="5">
         <v>42708</v>
       </c>
-      <c r="F87">
-        <v>2.3199999999999998</v>
+      <c r="F87" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E88" s="5">
         <v>42708</v>
       </c>
-      <c r="F88">
-        <v>2.3199999999999998</v>
+      <c r="F88" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E89" s="5">
         <v>42708</v>
       </c>
-      <c r="F89">
-        <v>2.3199999999999998</v>
+      <c r="F89" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E90" s="5">
         <v>42708</v>
       </c>
-      <c r="F90">
-        <v>2.3199999999999998</v>
+      <c r="F90" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E91" s="5">
         <v>42708</v>
       </c>
-      <c r="F91">
-        <v>2.3199999999999998</v>
+      <c r="F91" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G91" s="2"/>
     </row>
@@ -3297,19 +3546,19 @@
         <v>32</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E92" s="5">
         <v>42708</v>
       </c>
-      <c r="F92">
-        <v>2.3199999999999998</v>
+      <c r="F92" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G92" s="2"/>
     </row>
@@ -3318,43 +3567,43 @@
         <v>33</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E93" s="5">
         <v>42708</v>
       </c>
-      <c r="F93">
-        <v>2.3199999999999998</v>
+      <c r="F93" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="D94" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E94" s="5">
         <v>42708</v>
       </c>
-      <c r="F94">
-        <v>2.3199999999999998</v>
+      <c r="F94" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3366,4 +3615,2089 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E34" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E45" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E61" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E74" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E76" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E80" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E85" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E89" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E94" s="5">
+        <v>42716</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G94"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project-documents/Test_Cases.xlsx
+++ b/project-documents/Test_Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="345">
   <si>
     <t>2 numbers are chosen, both are between 1 and 6, and are added together to provide the die total</t>
   </si>
@@ -1015,12 +1015,66 @@
     <t>Passing Rome! awards the player $200</t>
   </si>
   <si>
+    <t>Card for paying 50 to each player, only pays one other player instead of all 7</t>
+  </si>
+  <si>
+    <t>Player cannot mortage before owning something</t>
+  </si>
+  <si>
+    <t>Rent is 100 regardless of how many VIAs are owned</t>
+  </si>
+  <si>
+    <t>I was prompted to use a card, and when I chose to do so it left me in The Arena without allowing to roll the dice.</t>
+  </si>
+  <si>
+    <t>locks out have to press x at the top</t>
+  </si>
+  <si>
+    <t>it gets stuck on asking if a player would like to mortgage to continue</t>
+  </si>
+  <si>
+    <t>It doesn't send the player to jail until the turn comes back around</t>
+  </si>
+  <si>
+    <t>updates on rolling, end turn, purchase, mortgage and unmortgage</t>
+  </si>
+  <si>
+    <t>removes 1/2 purchase price from the player balance</t>
+  </si>
+  <si>
+    <t>immediately flips</t>
+  </si>
+  <si>
+    <t>can have a negative balance</t>
+  </si>
+  <si>
+    <t>updates immediately</t>
+  </si>
+  <si>
+    <t>replaced with buy from another player</t>
+  </si>
+  <si>
+    <t>if you do not confirm buy, it keeps the button but it is greyed out</t>
+  </si>
+  <si>
+    <t>choose whom to buy the property to on your turn</t>
+  </si>
+  <si>
+    <t>Trade button activates after the player buys their first property</t>
+  </si>
+  <si>
+    <t>It prints do not own this property, there is a bug that if you hit confirm trade it will give the player the property regardless</t>
+  </si>
+  <si>
+    <t>cannot pick the player, only their property</t>
+  </si>
+  <si>
+    <t>It must follow through both cancels to end it</t>
+  </si>
+  <si>
     <t>doesn't respond to the cancel, but nothing happens</t>
   </si>
   <si>
-    <t>cannot pick the player, only their property</t>
-  </si>
-  <si>
     <t>The second box gives the player a choice</t>
   </si>
   <si>
@@ -1028,111 +1082,6 @@
   </si>
   <si>
     <t>once confirm trade is clicked the right hand side updates</t>
-  </si>
-  <si>
-    <t>It must follow through both cancels to end it</t>
-  </si>
-  <si>
-    <t>It prints do not own this property, there is a bug that if you hit confirm trade it will give the player the property regardless</t>
-  </si>
-  <si>
-    <t>Trade button activates after the player buys their first property</t>
-  </si>
-  <si>
-    <t>choose whom to buy the property to on your turn</t>
-  </si>
-  <si>
-    <t>if you do not confirm buy, it keeps the button but it is greyed out</t>
-  </si>
-  <si>
-    <t>replaced with buy from another player</t>
-  </si>
-  <si>
-    <t>updates immediately</t>
-  </si>
-  <si>
-    <t>can have a negative balance</t>
-  </si>
-  <si>
-    <t>it gets stuck on asking if a player would like to mortgage to continue</t>
-  </si>
-  <si>
-    <t>immediately flips</t>
-  </si>
-  <si>
-    <t>removes 1/2 purchase price from the player balance</t>
-  </si>
-  <si>
-    <t>it is a stats print out on right and button</t>
-  </si>
-  <si>
-    <t>updates to the next player</t>
-  </si>
-  <si>
-    <t>moves to see a battle</t>
-  </si>
-  <si>
-    <t>will increment the player's funds</t>
-  </si>
-  <si>
-    <t>will relocate</t>
-  </si>
-  <si>
-    <t>increments upward on stats bar</t>
-  </si>
-  <si>
-    <t>does populate different cards</t>
-  </si>
-  <si>
-    <t>does not print in stats bar does affect player balance</t>
-  </si>
-  <si>
-    <t>go to see a battle, end turn, roll and continue on. Does charge 50 denarius fine or escape on doubles</t>
-  </si>
-  <si>
-    <t>rent is stuck on triple rent or 100 denarius</t>
-  </si>
-  <si>
-    <t>if all colors are owned by one player then rent is doubled</t>
-  </si>
-  <si>
-    <t>default rent on the cards is paid until all colors are owned</t>
-  </si>
-  <si>
-    <t>updates on rolling, end turn, purchase, mortgage and unmortgage</t>
-  </si>
-  <si>
-    <t>can still mortgage, buy from another player and trade</t>
-  </si>
-  <si>
-    <t>defaults from 11 to 10 and increments up one to simulate how the board would work if it ignored the arena (11)</t>
-  </si>
-  <si>
-    <t>will go to jail and wait three turns, get out, end turn, roll and continue</t>
-  </si>
-  <si>
-    <t>It will go straight to Rome</t>
-  </si>
-  <si>
-    <t>Will increment upwards based on nearest location or direct location to move to</t>
-  </si>
-  <si>
-    <t>can roll doubles endlessly, turn ends, then roll one more time and then go to jail</t>
-  </si>
-  <si>
-    <t>move forward once rolling dice</t>
-  </si>
-  <si>
-    <t>end turn is greyed out and a stats bar print out says to continue to roll</t>
-  </si>
-  <si>
-    <t>It doesn't send the player to jail until the turn comes back around</t>
-  </si>
-  <si>
-    <t>doubles does increment up for each in a row</t>
-  </si>
-  <si>
-    <t>locks out have to press x at the top</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1196,6 +1145,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3621,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,17 +3664,17 @@
       <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>361</v>
+      <c r="E2" s="8">
+        <v>42716</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3692,17 +3687,17 @@
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>335</v>
+      <c r="E3" s="8">
+        <v>42716</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3787,9 +3782,7 @@
       <c r="F7" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>358</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3801,17 +3794,17 @@
       <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>359</v>
+      <c r="E8" s="11">
+        <v>42716</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3833,9 +3826,7 @@
       <c r="F9" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>360</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3856,11 +3847,9 @@
       <c r="F10" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3871,7 +3860,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E11" s="5">
         <v>42716</v>
@@ -3879,9 +3868,7 @@
       <c r="F11" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>356</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3914,18 +3901,16 @@
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="D13" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="14">
+        <v>42716</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3937,18 +3922,16 @@
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="D14" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="14">
+        <v>42716</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3981,7 +3964,7 @@
       <c r="C16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E16" s="5">
@@ -4002,7 +3985,7 @@
       <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E17" s="5">
@@ -4011,11 +3994,9 @@
       <c r="F17" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
@@ -4025,7 +4006,7 @@
       <c r="C18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E18" s="5">
@@ -4034,9 +4015,7 @@
       <c r="F18" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -4048,7 +4027,7 @@
       <c r="C19" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E19" s="5">
@@ -4057,9 +4036,7 @@
       <c r="F19" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4071,7 +4048,7 @@
       <c r="C20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E20" s="5">
@@ -4092,7 +4069,7 @@
       <c r="C21" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E21" s="5">
@@ -4113,7 +4090,7 @@
       <c r="C22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E22" s="5">
@@ -4122,8 +4099,8 @@
       <c r="F22" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>350</v>
+      <c r="G22" s="17" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,7 +4113,7 @@
       <c r="C23" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E23" s="5">
@@ -4157,7 +4134,7 @@
       <c r="C24" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E24" s="5">
@@ -4178,7 +4155,7 @@
       <c r="C25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E25" s="5">
@@ -4187,9 +4164,7 @@
       <c r="F25" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>349</v>
-      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -4201,7 +4176,7 @@
       <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="16" t="s">
         <v>260</v>
       </c>
       <c r="E26" s="5">
@@ -4210,9 +4185,7 @@
       <c r="F26" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>348</v>
-      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -4224,7 +4197,7 @@
       <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="18" t="s">
         <v>256</v>
       </c>
       <c r="E27" s="5">
@@ -4245,7 +4218,7 @@
       <c r="C28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="18" t="s">
         <v>256</v>
       </c>
       <c r="E28" s="5">
@@ -4266,7 +4239,7 @@
       <c r="C29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="18" t="s">
         <v>256</v>
       </c>
       <c r="E29" s="5">
@@ -4287,7 +4260,7 @@
       <c r="C30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="18" t="s">
         <v>256</v>
       </c>
       <c r="E30" s="5">
@@ -4308,7 +4281,7 @@
       <c r="C31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="18" t="s">
         <v>256</v>
       </c>
       <c r="E31" s="5">
@@ -4381,7 +4354,7 @@
         <v>292</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4403,6 +4376,9 @@
       <c r="F35" s="6" t="s">
         <v>292</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -4415,7 +4391,7 @@
         <v>128</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E36" s="5">
         <v>42716</v>
@@ -4423,7 +4399,9 @@
       <c r="F36" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -4444,6 +4422,9 @@
       <c r="F37" s="6" t="s">
         <v>292</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -4455,7 +4436,7 @@
       <c r="C38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E38" s="5">
@@ -4476,7 +4457,7 @@
       <c r="C39" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E39" s="5">
@@ -4497,7 +4478,7 @@
       <c r="C40" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E40" s="5">
@@ -4518,7 +4499,7 @@
       <c r="C41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E41" s="5">
@@ -4527,9 +4508,7 @@
       <c r="F41" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -4541,7 +4520,7 @@
       <c r="C42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E42" s="5">
@@ -4550,9 +4529,7 @@
       <c r="F42" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -4564,7 +4541,7 @@
       <c r="C43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E43" s="5">
@@ -4585,7 +4562,7 @@
       <c r="C44" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E44" s="5">
@@ -4606,7 +4583,7 @@
       <c r="C45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="5">
@@ -4614,9 +4591,6 @@
       </c>
       <c r="F45" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4630,7 +4604,7 @@
         <v>150</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E46" s="5">
         <v>42716</v>
@@ -4639,7 +4613,7 @@
         <v>292</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4661,9 +4635,7 @@
       <c r="F47" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -4684,9 +4656,7 @@
       <c r="F48" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>343</v>
-      </c>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -4793,7 +4763,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>166</v>
       </c>
@@ -4803,7 +4773,7 @@
       <c r="C54" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="20" t="s">
         <v>260</v>
       </c>
       <c r="E54" s="5">
@@ -4812,9 +4782,7 @@
       <c r="F54" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -4827,7 +4795,7 @@
         <v>170</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E55" s="5">
         <v>42716</v>
@@ -4835,7 +4803,9 @@
       <c r="F55" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -4847,7 +4817,7 @@
       <c r="C56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E56" s="5">
@@ -4868,7 +4838,7 @@
       <c r="C57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E57" s="5">
@@ -4877,9 +4847,7 @@
       <c r="F57" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>340</v>
-      </c>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -4891,7 +4859,7 @@
       <c r="C58" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E58" s="5">
@@ -4912,7 +4880,7 @@
       <c r="C59" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E59" s="5">
@@ -4933,7 +4901,7 @@
       <c r="C60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E60" s="5">
@@ -4954,7 +4922,7 @@
       <c r="C61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E61" s="5">
@@ -4975,7 +4943,7 @@
       <c r="C62" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E62" s="5">
@@ -4984,9 +4952,7 @@
       <c r="F62" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -4998,7 +4964,7 @@
       <c r="C63" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E63" s="5">
@@ -5011,7 +4977,7 @@
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>308</v>
@@ -5019,7 +4985,7 @@
       <c r="C64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E64" s="5">
@@ -5040,7 +5006,7 @@
       <c r="C65" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E65" s="5">
@@ -5049,9 +5015,7 @@
       <c r="F65" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>338</v>
-      </c>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -5063,7 +5027,7 @@
       <c r="C66" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="21" t="s">
         <v>260</v>
       </c>
       <c r="E66" s="5">
@@ -5084,17 +5048,17 @@
       <c r="C67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E67" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>337</v>
+      <c r="E67" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5107,16 +5071,16 @@
       <c r="C68" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E68" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G68" s="2"/>
+      <c r="D68" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
@@ -5128,16 +5092,16 @@
       <c r="C69" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E69" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G69" s="2"/>
+      <c r="D69" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -5149,16 +5113,16 @@
       <c r="C70" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E70" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G70" s="2"/>
+      <c r="D70" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -5170,16 +5134,16 @@
       <c r="C71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E71" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G71" s="2"/>
+      <c r="D71" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -5191,16 +5155,16 @@
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E72" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G72" s="2"/>
+      <c r="D72" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -5212,17 +5176,17 @@
       <c r="C73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E73" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>336</v>
+      <c r="D73" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5235,16 +5199,16 @@
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E74" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G74" s="2"/>
+      <c r="D74" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E74" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -5256,17 +5220,17 @@
       <c r="C75" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E75" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>334</v>
+      <c r="E75" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5279,16 +5243,16 @@
       <c r="C76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E76" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="D76" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E76" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G76" s="22" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5302,16 +5266,16 @@
       <c r="C77" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E77" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G77" s="2"/>
+      <c r="D77" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -5323,17 +5287,17 @@
       <c r="C78" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E78" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>332</v>
+      <c r="E78" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5346,17 +5310,17 @@
       <c r="C79" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E79" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>331</v>
+      <c r="D79" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5369,16 +5333,16 @@
       <c r="C80" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E80" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G80" s="2"/>
+      <c r="D80" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E80" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
@@ -5390,17 +5354,17 @@
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E81" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>330</v>
+      <c r="D81" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5413,16 +5377,16 @@
       <c r="C82" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E82" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G82" s="2"/>
+      <c r="D82" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -5434,17 +5398,17 @@
       <c r="C83" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E83" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>329</v>
+      <c r="D83" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5457,16 +5421,16 @@
       <c r="C84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E84" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G84" s="2"/>
+      <c r="D84" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -5478,16 +5442,16 @@
       <c r="C85" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E85" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G85" s="2"/>
+      <c r="D85" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E85" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -5499,17 +5463,17 @@
       <c r="C86" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E86" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>328</v>
+      <c r="E86" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5522,16 +5486,16 @@
       <c r="C87" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E87" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G87" s="2"/>
+      <c r="D87" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -5543,17 +5507,17 @@
       <c r="C88" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E88" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>323</v>
+      <c r="E88" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5566,17 +5530,17 @@
       <c r="C89" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E89" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>327</v>
+      <c r="D89" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E89" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5589,17 +5553,17 @@
       <c r="C90" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E90" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>322</v>
+      <c r="E90" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5612,16 +5576,16 @@
       <c r="C91" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E91" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G91" s="2"/>
+      <c r="D91" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G91" s="22"/>
     </row>
     <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
@@ -5633,17 +5597,17 @@
       <c r="C92" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E92" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>324</v>
+      <c r="D92" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5656,17 +5620,17 @@
       <c r="C93" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E93" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>325</v>
+      <c r="E93" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5679,17 +5643,17 @@
       <c r="C94" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E94" s="5">
-        <v>42716</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>326</v>
+      <c r="D94" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E94" s="23">
+        <v>42716</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
